--- a/years/1985.xlsx
+++ b/years/1985.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21465" windowHeight="8265"/>
   </bookViews>
   <sheets>
-    <sheet name="aIomlktX" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="aIomlktX" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>TÜRKİYE İSTATİSTİK KURUMU</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Şehir</t>
   </si>
   <si>
-    <t>Köy </t>
+    <t>Köy</t>
   </si>
   <si>
     <t>Erkek</t>
@@ -246,23 +246,13 @@
   </si>
   <si>
     <t>Zonguldak</t>
-  </si>
-  <si>
-    <t>Şehir : İl ve ilçe merkezleri sınırları içindeki nüfustur.</t>
-  </si>
-  <si>
-    <t>Köy : İl ve ilçe merkezleri dışında kalan yerleşim yerlerindeki (Belde belediyeleri dahil) nüfustur.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -271,22 +261,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -294,7 +269,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -302,7 +277,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -310,7 +285,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF7F0000"/>
       <name val="Arial"/>
@@ -334,104 +309,65 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -490,2350 +426,2631 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5708502024291"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="8.71255060728745"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="36.5703125"/>
+    <col min="2" max="9" width="8.7109375"/>
+    <col min="10" max="10" width="6.5703125"/>
+    <col min="11" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="I11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="J11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B14" s="6">
         <v>50664458</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C14" s="6">
         <v>25671975</v>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D14" s="6">
         <v>24992483</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E14" s="6">
         <v>26865757</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F14" s="6">
         <v>14010662</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G14" s="6">
         <v>12855095</v>
       </c>
-      <c r="H11" s="9" t="n">
+      <c r="H14" s="6">
         <v>23798701</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I14" s="6">
         <v>11661313</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J14" s="6">
         <v>12137388</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B15" s="7">
         <v>1725940</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C15" s="7">
         <v>875164</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D15" s="7">
         <v>850776</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E15" s="7">
         <v>1142201</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F15" s="7">
         <v>586362</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G15" s="7">
         <v>555839</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H15" s="7">
         <v>583739</v>
       </c>
-      <c r="I13" s="10" t="n">
+      <c r="I15" s="7">
         <v>288802</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J15" s="7">
         <v>294937</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B16" s="7">
         <v>430728</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C16" s="7">
         <v>217195</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D16" s="7">
         <v>213533</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E16" s="7">
         <v>150991</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F16" s="7">
         <v>78337</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G16" s="7">
         <v>72654</v>
       </c>
-      <c r="H14" s="10" t="n">
+      <c r="H16" s="7">
         <v>279737</v>
       </c>
-      <c r="I14" s="10" t="n">
+      <c r="I16" s="7">
         <v>138858</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J16" s="7">
         <v>140879</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B17" s="7">
         <v>666978</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C17" s="7">
         <v>333328</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D17" s="7">
         <v>333650</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E17" s="7">
         <v>229790</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F17" s="7">
         <v>119044</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G17" s="7">
         <v>110746</v>
       </c>
-      <c r="H15" s="10" t="n">
+      <c r="H17" s="7">
         <v>437188</v>
       </c>
-      <c r="I15" s="10" t="n">
+      <c r="I17" s="7">
         <v>214284</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J17" s="7">
         <v>222904</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B18" s="7">
         <v>421131</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C18" s="7">
         <v>218488</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D18" s="7">
         <v>202643</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E18" s="7">
         <v>141852</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F18" s="7">
         <v>81507</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G18" s="7">
         <v>60345</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H18" s="7">
         <v>279279</v>
       </c>
-      <c r="I16" s="10" t="n">
+      <c r="I18" s="7">
         <v>136981</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J18" s="7">
         <v>142298</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B19" s="7">
         <v>358289</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C19" s="7">
         <v>181925</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D19" s="7">
         <v>176364</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E19" s="7">
         <v>148614</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F19" s="7">
         <v>78783</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="G19" s="7">
         <v>69831</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="H19" s="7">
         <v>209675</v>
       </c>
-      <c r="I17" s="10" t="n">
+      <c r="I19" s="7">
         <v>103142</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="J19" s="7">
         <v>106533</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B20" s="7">
         <v>3306327</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C20" s="7">
         <v>1702805</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D20" s="7">
         <v>1603522</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E20" s="7">
         <v>2737209</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F20" s="7">
         <v>1422935</v>
       </c>
-      <c r="G18" s="10" t="n">
+      <c r="G20" s="7">
         <v>1314274</v>
       </c>
-      <c r="H18" s="10" t="n">
+      <c r="H20" s="7">
         <v>569118</v>
       </c>
-      <c r="I18" s="10" t="n">
+      <c r="I20" s="7">
         <v>279870</v>
       </c>
-      <c r="J18" s="10" t="n">
+      <c r="J20" s="7">
         <v>289248</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B21" s="7">
         <v>891149</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C21" s="7">
         <v>455345</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D21" s="7">
         <v>435804</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E21" s="7">
         <v>397712</v>
       </c>
-      <c r="F19" s="10" t="n">
+      <c r="F21" s="7">
         <v>208191</v>
       </c>
-      <c r="G19" s="10" t="n">
+      <c r="G21" s="7">
         <v>189521</v>
       </c>
-      <c r="H19" s="10" t="n">
+      <c r="H21" s="7">
         <v>493437</v>
       </c>
-      <c r="I19" s="10" t="n">
+      <c r="I21" s="7">
         <v>247154</v>
       </c>
-      <c r="J19" s="10" t="n">
+      <c r="J21" s="7">
         <v>246283</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B22" s="7">
         <v>226338</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C22" s="7">
         <v>110557</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D22" s="7">
         <v>115781</v>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E22" s="7">
         <v>58302</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="F22" s="7">
         <v>32192</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="G22" s="7">
         <v>26110</v>
       </c>
-      <c r="H20" s="10" t="n">
+      <c r="H22" s="7">
         <v>168036</v>
       </c>
-      <c r="I20" s="10" t="n">
+      <c r="I22" s="7">
         <v>78365</v>
       </c>
-      <c r="J20" s="10" t="n">
+      <c r="J22" s="7">
         <v>89671</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B23" s="7">
         <v>743419</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C23" s="7">
         <v>372382</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D23" s="7">
         <v>371037</v>
       </c>
-      <c r="E21" s="10" t="n">
+      <c r="E23" s="7">
         <v>302311</v>
       </c>
-      <c r="F21" s="10" t="n">
+      <c r="F23" s="7">
         <v>154360</v>
       </c>
-      <c r="G21" s="10" t="n">
+      <c r="G23" s="7">
         <v>147951</v>
       </c>
-      <c r="H21" s="10" t="n">
+      <c r="H23" s="7">
         <v>441108</v>
       </c>
-      <c r="I21" s="10" t="n">
+      <c r="I23" s="7">
         <v>218022</v>
       </c>
-      <c r="J21" s="10" t="n">
+      <c r="J23" s="7">
         <v>223086</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B24" s="7">
         <v>910282</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C24" s="7">
         <v>463480</v>
       </c>
-      <c r="D22" s="10" t="n">
+      <c r="D24" s="7">
         <v>446802</v>
       </c>
-      <c r="E22" s="10" t="n">
+      <c r="E24" s="7">
         <v>407585</v>
       </c>
-      <c r="F22" s="10" t="n">
+      <c r="F24" s="7">
         <v>210867</v>
       </c>
-      <c r="G22" s="10" t="n">
+      <c r="G24" s="7">
         <v>196718</v>
       </c>
-      <c r="H22" s="10" t="n">
+      <c r="H24" s="7">
         <v>502697</v>
       </c>
-      <c r="I22" s="10" t="n">
+      <c r="I24" s="7">
         <v>252613</v>
       </c>
-      <c r="J22" s="10" t="n">
+      <c r="J24" s="7">
         <v>250084</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B25" s="7">
         <v>160909</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C25" s="7">
         <v>83868</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D25" s="7">
         <v>77041</v>
       </c>
-      <c r="E23" s="10" t="n">
+      <c r="E25" s="7">
         <v>71521</v>
       </c>
-      <c r="F23" s="10" t="n">
+      <c r="F25" s="7">
         <v>39952</v>
       </c>
-      <c r="G23" s="10" t="n">
+      <c r="G25" s="7">
         <v>31569</v>
       </c>
-      <c r="H23" s="10" t="n">
+      <c r="H25" s="7">
         <v>89388</v>
       </c>
-      <c r="I23" s="10" t="n">
+      <c r="I25" s="7">
         <v>43916</v>
       </c>
-      <c r="J23" s="10" t="n">
+      <c r="J25" s="7">
         <v>45472</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10" t="n">
+      <c r="B26" s="7">
         <v>241548</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C26" s="7">
         <v>120075</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D26" s="7">
         <v>121473</v>
       </c>
-      <c r="E24" s="10" t="n">
+      <c r="E26" s="7">
         <v>61199</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F26" s="7">
         <v>32845</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="G26" s="7">
         <v>28354</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H26" s="7">
         <v>180349</v>
       </c>
-      <c r="I24" s="10" t="n">
+      <c r="I26" s="7">
         <v>87230</v>
       </c>
-      <c r="J24" s="10" t="n">
+      <c r="J26" s="7">
         <v>93119</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B27" s="7">
         <v>300843</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C27" s="7">
         <v>156224</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D27" s="7">
         <v>144619</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E27" s="7">
         <v>119626</v>
       </c>
-      <c r="F25" s="10" t="n">
+      <c r="F27" s="7">
         <v>65669</v>
       </c>
-      <c r="G25" s="10" t="n">
+      <c r="G27" s="7">
         <v>53957</v>
       </c>
-      <c r="H25" s="10" t="n">
+      <c r="H27" s="7">
         <v>181217</v>
       </c>
-      <c r="I25" s="10" t="n">
+      <c r="I27" s="7">
         <v>90555</v>
       </c>
-      <c r="J25" s="10" t="n">
+      <c r="J27" s="7">
         <v>90662</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="10" t="n">
+      <c r="B28" s="7">
         <v>504778</v>
       </c>
-      <c r="C26" s="10" t="n">
+      <c r="C28" s="7">
         <v>250806</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D28" s="7">
         <v>253972</v>
       </c>
-      <c r="E26" s="10" t="n">
+      <c r="E28" s="7">
         <v>143787</v>
       </c>
-      <c r="F26" s="10" t="n">
+      <c r="F28" s="7">
         <v>76865</v>
       </c>
-      <c r="G26" s="10" t="n">
+      <c r="G28" s="7">
         <v>66922</v>
       </c>
-      <c r="H26" s="10" t="n">
+      <c r="H28" s="7">
         <v>360991</v>
       </c>
-      <c r="I26" s="10" t="n">
+      <c r="I28" s="7">
         <v>173941</v>
       </c>
-      <c r="J26" s="10" t="n">
+      <c r="J28" s="7">
         <v>187050</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="10" t="n">
+      <c r="B29" s="7">
         <v>248002</v>
       </c>
-      <c r="C27" s="10" t="n">
+      <c r="C29" s="7">
         <v>125457</v>
       </c>
-      <c r="D27" s="10" t="n">
+      <c r="D29" s="7">
         <v>122545</v>
       </c>
-      <c r="E27" s="10" t="n">
+      <c r="E29" s="7">
         <v>98907</v>
       </c>
-      <c r="F27" s="10" t="n">
+      <c r="F29" s="7">
         <v>53371</v>
       </c>
-      <c r="G27" s="10" t="n">
+      <c r="G29" s="7">
         <v>45536</v>
       </c>
-      <c r="H27" s="10" t="n">
+      <c r="H29" s="7">
         <v>149095</v>
       </c>
-      <c r="I27" s="10" t="n">
+      <c r="I29" s="7">
         <v>72086</v>
       </c>
-      <c r="J27" s="10" t="n">
+      <c r="J29" s="7">
         <v>77009</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="10" t="n">
+      <c r="B30" s="7">
         <v>1324015</v>
       </c>
-      <c r="C28" s="10" t="n">
+      <c r="C30" s="7">
         <v>669134</v>
       </c>
-      <c r="D28" s="10" t="n">
+      <c r="D30" s="7">
         <v>654881</v>
       </c>
-      <c r="E28" s="10" t="n">
+      <c r="E30" s="7">
         <v>840094</v>
       </c>
-      <c r="F28" s="10" t="n">
+      <c r="F30" s="7">
         <v>427722</v>
       </c>
-      <c r="G28" s="10" t="n">
+      <c r="G30" s="7">
         <v>412372</v>
       </c>
-      <c r="H28" s="10" t="n">
+      <c r="H30" s="7">
         <v>483921</v>
       </c>
-      <c r="I28" s="10" t="n">
+      <c r="I30" s="7">
         <v>241412</v>
       </c>
-      <c r="J28" s="10" t="n">
+      <c r="J30" s="7">
         <v>242509</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="10" t="n">
+      <c r="B31" s="7">
         <v>417121</v>
       </c>
-      <c r="C29" s="10" t="n">
+      <c r="C31" s="7">
         <v>218895</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D31" s="7">
         <v>198226</v>
       </c>
-      <c r="E29" s="10" t="n">
+      <c r="E31" s="7">
         <v>148108</v>
       </c>
-      <c r="F29" s="10" t="n">
+      <c r="F31" s="7">
         <v>81653</v>
       </c>
-      <c r="G29" s="10" t="n">
+      <c r="G31" s="7">
         <v>66455</v>
       </c>
-      <c r="H29" s="10" t="n">
+      <c r="H31" s="7">
         <v>269013</v>
       </c>
-      <c r="I29" s="10" t="n">
+      <c r="I31" s="7">
         <v>137242</v>
       </c>
-      <c r="J29" s="10" t="n">
+      <c r="J31" s="7">
         <v>131771</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="10" t="n">
+      <c r="B32" s="7">
         <v>263964</v>
       </c>
-      <c r="C30" s="10" t="n">
+      <c r="C32" s="7">
         <v>129903</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D32" s="7">
         <v>134061</v>
       </c>
-      <c r="E30" s="10" t="n">
+      <c r="E32" s="7">
         <v>84494</v>
       </c>
-      <c r="F30" s="10" t="n">
+      <c r="F32" s="7">
         <v>45688</v>
       </c>
-      <c r="G30" s="10" t="n">
+      <c r="G32" s="7">
         <v>38806</v>
       </c>
-      <c r="H30" s="10" t="n">
+      <c r="H32" s="7">
         <v>179470</v>
       </c>
-      <c r="I30" s="10" t="n">
+      <c r="I32" s="7">
         <v>84215</v>
       </c>
-      <c r="J30" s="10" t="n">
+      <c r="J32" s="7">
         <v>95255</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B33" s="7">
         <v>599204</v>
       </c>
-      <c r="C31" s="10" t="n">
+      <c r="C33" s="7">
         <v>290159</v>
       </c>
-      <c r="D31" s="10" t="n">
+      <c r="D33" s="7">
         <v>309045</v>
       </c>
-      <c r="E31" s="10" t="n">
+      <c r="E33" s="7">
         <v>200431</v>
       </c>
-      <c r="F31" s="10" t="n">
+      <c r="F33" s="7">
         <v>101477</v>
       </c>
-      <c r="G31" s="10" t="n">
+      <c r="G33" s="7">
         <v>98954</v>
       </c>
-      <c r="H31" s="10" t="n">
+      <c r="H33" s="7">
         <v>398773</v>
       </c>
-      <c r="I31" s="10" t="n">
+      <c r="I33" s="7">
         <v>188682</v>
       </c>
-      <c r="J31" s="10" t="n">
+      <c r="J33" s="7">
         <v>210091</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
+    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="10" t="n">
+      <c r="B34" s="7">
         <v>667478</v>
       </c>
-      <c r="C32" s="10" t="n">
+      <c r="C34" s="7">
         <v>335364</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D34" s="7">
         <v>332114</v>
       </c>
-      <c r="E32" s="10" t="n">
+      <c r="E34" s="7">
         <v>248673</v>
       </c>
-      <c r="F32" s="10" t="n">
+      <c r="F34" s="7">
         <v>130415</v>
       </c>
-      <c r="G32" s="10" t="n">
+      <c r="G34" s="7">
         <v>118258</v>
       </c>
-      <c r="H32" s="10" t="n">
+      <c r="H34" s="7">
         <v>418805</v>
       </c>
-      <c r="I32" s="10" t="n">
+      <c r="I34" s="7">
         <v>204949</v>
       </c>
-      <c r="J32" s="10" t="n">
+      <c r="J34" s="7">
         <v>213856</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+    <row r="35" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="10" t="n">
+      <c r="B35" s="7">
         <v>934505</v>
       </c>
-      <c r="C33" s="10" t="n">
+      <c r="C35" s="7">
         <v>480703</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D35" s="7">
         <v>453802</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E35" s="7">
         <v>472055</v>
       </c>
-      <c r="F33" s="10" t="n">
+      <c r="F35" s="7">
         <v>249531</v>
       </c>
-      <c r="G33" s="10" t="n">
+      <c r="G35" s="7">
         <v>222524</v>
       </c>
-      <c r="H33" s="10" t="n">
+      <c r="H35" s="7">
         <v>462450</v>
       </c>
-      <c r="I33" s="10" t="n">
+      <c r="I35" s="7">
         <v>231172</v>
       </c>
-      <c r="J33" s="10" t="n">
+      <c r="J35" s="7">
         <v>231278</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="10" t="n">
+      <c r="B36" s="7">
         <v>389638</v>
       </c>
-      <c r="C34" s="10" t="n">
+      <c r="C36" s="7">
         <v>209988</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D36" s="7">
         <v>179650</v>
       </c>
-      <c r="E34" s="10" t="n">
+      <c r="E36" s="7">
         <v>178610</v>
       </c>
-      <c r="F34" s="10" t="n">
+      <c r="F36" s="7">
         <v>99522</v>
       </c>
-      <c r="G34" s="10" t="n">
+      <c r="G36" s="7">
         <v>79088</v>
       </c>
-      <c r="H34" s="10" t="n">
+      <c r="H36" s="7">
         <v>211028</v>
       </c>
-      <c r="I34" s="10" t="n">
+      <c r="I36" s="7">
         <v>110466</v>
       </c>
-      <c r="J34" s="10" t="n">
+      <c r="J36" s="7">
         <v>100562</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+    <row r="37" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="10" t="n">
+      <c r="B37" s="7">
         <v>483715</v>
       </c>
-      <c r="C35" s="10" t="n">
+      <c r="C37" s="7">
         <v>242277</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D37" s="7">
         <v>241438</v>
       </c>
-      <c r="E35" s="10" t="n">
+      <c r="E37" s="7">
         <v>233621</v>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F37" s="7">
         <v>120590</v>
       </c>
-      <c r="G35" s="10" t="n">
+      <c r="G37" s="7">
         <v>113031</v>
       </c>
-      <c r="H35" s="10" t="n">
+      <c r="H37" s="7">
         <v>250094</v>
       </c>
-      <c r="I35" s="10" t="n">
+      <c r="I37" s="7">
         <v>121687</v>
       </c>
-      <c r="J35" s="10" t="n">
+      <c r="J37" s="7">
         <v>128407</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="38" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="10" t="n">
+      <c r="B38" s="7">
         <v>299985</v>
       </c>
-      <c r="C36" s="10" t="n">
+      <c r="C38" s="7">
         <v>154811</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D38" s="7">
         <v>145174</v>
       </c>
-      <c r="E36" s="10" t="n">
+      <c r="E38" s="7">
         <v>112307</v>
       </c>
-      <c r="F36" s="10" t="n">
+      <c r="F38" s="7">
         <v>63254</v>
       </c>
-      <c r="G36" s="10" t="n">
+      <c r="G38" s="7">
         <v>49053</v>
       </c>
-      <c r="H36" s="10" t="n">
+      <c r="H38" s="7">
         <v>187678</v>
       </c>
-      <c r="I36" s="10" t="n">
+      <c r="I38" s="7">
         <v>91557</v>
       </c>
-      <c r="J36" s="10" t="n">
+      <c r="J38" s="7">
         <v>96121</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="10" t="n">
+      <c r="B39" s="7">
         <v>856175</v>
       </c>
-      <c r="C37" s="10" t="n">
+      <c r="C39" s="7">
         <v>435276</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D39" s="7">
         <v>420899</v>
       </c>
-      <c r="E37" s="10" t="n">
+      <c r="E39" s="7">
         <v>350955</v>
       </c>
-      <c r="F37" s="10" t="n">
+      <c r="F39" s="7">
         <v>190850</v>
       </c>
-      <c r="G37" s="10" t="n">
+      <c r="G39" s="7">
         <v>160105</v>
       </c>
-      <c r="H37" s="10" t="n">
+      <c r="H39" s="7">
         <v>505220</v>
       </c>
-      <c r="I37" s="10" t="n">
+      <c r="I39" s="7">
         <v>244426</v>
       </c>
-      <c r="J37" s="10" t="n">
+      <c r="J39" s="7">
         <v>260794</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+    <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="10" t="n">
+      <c r="B40" s="7">
         <v>597397</v>
       </c>
-      <c r="C38" s="10" t="n">
+      <c r="C40" s="7">
         <v>301562</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D40" s="7">
         <v>295835</v>
       </c>
-      <c r="E38" s="10" t="n">
+      <c r="E40" s="7">
         <v>404236</v>
       </c>
-      <c r="F38" s="10" t="n">
+      <c r="F40" s="7">
         <v>205603</v>
       </c>
-      <c r="G38" s="10" t="n">
+      <c r="G40" s="7">
         <v>198633</v>
       </c>
-      <c r="H38" s="10" t="n">
+      <c r="H40" s="7">
         <v>193161</v>
       </c>
-      <c r="I38" s="10" t="n">
+      <c r="I40" s="7">
         <v>95959</v>
       </c>
-      <c r="J38" s="10" t="n">
+      <c r="J40" s="7">
         <v>97202</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+    <row r="41" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="10" t="n">
+      <c r="B41" s="7">
         <v>966490</v>
       </c>
-      <c r="C39" s="10" t="n">
+      <c r="C41" s="7">
         <v>490022</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D41" s="7">
         <v>476468</v>
       </c>
-      <c r="E39" s="10" t="n">
+      <c r="E41" s="7">
         <v>642938</v>
       </c>
-      <c r="F39" s="10" t="n">
+      <c r="F41" s="7">
         <v>330370</v>
       </c>
-      <c r="G39" s="10" t="n">
+      <c r="G41" s="7">
         <v>312568</v>
       </c>
-      <c r="H39" s="10" t="n">
+      <c r="H41" s="7">
         <v>323552</v>
       </c>
-      <c r="I39" s="10" t="n">
+      <c r="I41" s="7">
         <v>159652</v>
       </c>
-      <c r="J39" s="10" t="n">
+      <c r="J41" s="7">
         <v>163900</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+    <row r="42" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="10" t="n">
+      <c r="B42" s="7">
         <v>502151</v>
       </c>
-      <c r="C40" s="10" t="n">
+      <c r="C42" s="7">
         <v>243372</v>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D42" s="7">
         <v>258779</v>
       </c>
-      <c r="E40" s="10" t="n">
+      <c r="E42" s="7">
         <v>160995</v>
       </c>
-      <c r="F40" s="10" t="n">
+      <c r="F42" s="7">
         <v>83942</v>
       </c>
-      <c r="G40" s="10" t="n">
+      <c r="G42" s="7">
         <v>77053</v>
       </c>
-      <c r="H40" s="10" t="n">
+      <c r="H42" s="7">
         <v>341156</v>
       </c>
-      <c r="I40" s="10" t="n">
+      <c r="I42" s="7">
         <v>159430</v>
       </c>
-      <c r="J40" s="10" t="n">
+      <c r="J42" s="7">
         <v>181726</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+    <row r="43" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="10" t="n">
+      <c r="B43" s="7">
         <v>283753</v>
       </c>
-      <c r="C41" s="10" t="n">
+      <c r="C43" s="7">
         <v>135693</v>
       </c>
-      <c r="D41" s="10" t="n">
+      <c r="D43" s="7">
         <v>148060</v>
       </c>
-      <c r="E41" s="10" t="n">
+      <c r="E43" s="7">
         <v>68793</v>
       </c>
-      <c r="F41" s="10" t="n">
+      <c r="F43" s="7">
         <v>38408</v>
       </c>
-      <c r="G41" s="10" t="n">
+      <c r="G43" s="7">
         <v>30385</v>
       </c>
-      <c r="H41" s="10" t="n">
+      <c r="H43" s="7">
         <v>214960</v>
       </c>
-      <c r="I41" s="10" t="n">
+      <c r="I43" s="7">
         <v>97285</v>
       </c>
-      <c r="J41" s="10" t="n">
+      <c r="J43" s="7">
         <v>117675</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+    <row r="44" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="10" t="n">
+      <c r="B44" s="7">
         <v>182645</v>
       </c>
-      <c r="C42" s="10" t="n">
+      <c r="C44" s="7">
         <v>100715</v>
       </c>
-      <c r="D42" s="10" t="n">
+      <c r="D44" s="7">
         <v>81930</v>
       </c>
-      <c r="E42" s="10" t="n">
+      <c r="E44" s="7">
         <v>55563</v>
       </c>
-      <c r="F42" s="10" t="n">
+      <c r="F44" s="7">
         <v>34521</v>
       </c>
-      <c r="G42" s="10" t="n">
+      <c r="G44" s="7">
         <v>21042</v>
       </c>
-      <c r="H42" s="10" t="n">
+      <c r="H44" s="7">
         <v>127082</v>
       </c>
-      <c r="I42" s="10" t="n">
+      <c r="I44" s="7">
         <v>66194</v>
       </c>
-      <c r="J42" s="10" t="n">
+      <c r="J44" s="7">
         <v>60888</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+    <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="10" t="n">
+      <c r="B45" s="7">
         <v>1002252</v>
       </c>
-      <c r="C43" s="10" t="n">
+      <c r="C45" s="7">
         <v>506296</v>
       </c>
-      <c r="D43" s="10" t="n">
+      <c r="D45" s="7">
         <v>495956</v>
       </c>
-      <c r="E43" s="10" t="n">
+      <c r="E45" s="7">
         <v>428845</v>
       </c>
-      <c r="F43" s="10" t="n">
+      <c r="F45" s="7">
         <v>220154</v>
       </c>
-      <c r="G43" s="10" t="n">
+      <c r="G45" s="7">
         <v>208691</v>
       </c>
-      <c r="H43" s="10" t="n">
+      <c r="H45" s="7">
         <v>573407</v>
       </c>
-      <c r="I43" s="10" t="n">
+      <c r="I45" s="7">
         <v>286142</v>
       </c>
-      <c r="J43" s="10" t="n">
+      <c r="J45" s="7">
         <v>287265</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+    <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="n">
+      <c r="B46" s="7">
         <v>382844</v>
       </c>
-      <c r="C44" s="10" t="n">
+      <c r="C46" s="7">
         <v>198171</v>
       </c>
-      <c r="D44" s="10" t="n">
+      <c r="D46" s="7">
         <v>184673</v>
       </c>
-      <c r="E44" s="10" t="n">
+      <c r="E46" s="7">
         <v>183298</v>
       </c>
-      <c r="F44" s="10" t="n">
+      <c r="F46" s="7">
         <v>100399</v>
       </c>
-      <c r="G44" s="10" t="n">
+      <c r="G46" s="7">
         <v>82899</v>
       </c>
-      <c r="H44" s="10" t="n">
+      <c r="H46" s="7">
         <v>199546</v>
       </c>
-      <c r="I44" s="10" t="n">
+      <c r="I46" s="7">
         <v>97772</v>
       </c>
-      <c r="J44" s="10" t="n">
+      <c r="J46" s="7">
         <v>101774</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="10" t="n">
+      <c r="B47" s="7">
         <v>1034085</v>
       </c>
-      <c r="C45" s="10" t="n">
+      <c r="C47" s="7">
         <v>527092</v>
       </c>
-      <c r="D45" s="10" t="n">
+      <c r="D47" s="7">
         <v>506993</v>
       </c>
-      <c r="E45" s="10" t="n">
+      <c r="E47" s="7">
         <v>566419</v>
       </c>
-      <c r="F45" s="10" t="n">
+      <c r="F47" s="7">
         <v>291928</v>
       </c>
-      <c r="G45" s="10" t="n">
+      <c r="G47" s="7">
         <v>274491</v>
       </c>
-      <c r="H45" s="10" t="n">
+      <c r="H47" s="7">
         <v>467666</v>
       </c>
-      <c r="I45" s="10" t="n">
+      <c r="I47" s="7">
         <v>235164</v>
       </c>
-      <c r="J45" s="10" t="n">
+      <c r="J47" s="7">
         <v>232502</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+    <row r="48" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="10" t="n">
+      <c r="B48" s="7">
         <v>5842985</v>
       </c>
-      <c r="C46" s="10" t="n">
+      <c r="C48" s="7">
         <v>3041847</v>
       </c>
-      <c r="D46" s="10" t="n">
+      <c r="D48" s="7">
         <v>2801138</v>
       </c>
-      <c r="E46" s="10" t="n">
+      <c r="E48" s="7">
         <v>5560908</v>
       </c>
-      <c r="F46" s="10" t="n">
+      <c r="F48" s="7">
         <v>2887224</v>
       </c>
-      <c r="G46" s="10" t="n">
+      <c r="G48" s="7">
         <v>2673684</v>
       </c>
-      <c r="H46" s="10" t="n">
+      <c r="H48" s="7">
         <v>282077</v>
       </c>
-      <c r="I46" s="10" t="n">
+      <c r="I48" s="7">
         <v>154623</v>
       </c>
-      <c r="J46" s="10" t="n">
+      <c r="J48" s="7">
         <v>127454</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+    <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="10" t="n">
+      <c r="B49" s="7">
         <v>2317829</v>
       </c>
-      <c r="C47" s="10" t="n">
+      <c r="C49" s="7">
         <v>1198236</v>
       </c>
-      <c r="D47" s="10" t="n">
+      <c r="D49" s="7">
         <v>1119593</v>
       </c>
-      <c r="E47" s="10" t="n">
+      <c r="E49" s="7">
         <v>1800797</v>
       </c>
-      <c r="F47" s="10" t="n">
+      <c r="F49" s="7">
         <v>936500</v>
       </c>
-      <c r="G47" s="10" t="n">
+      <c r="G49" s="7">
         <v>864297</v>
       </c>
-      <c r="H47" s="10" t="n">
+      <c r="H49" s="7">
         <v>517032</v>
       </c>
-      <c r="I47" s="10" t="n">
+      <c r="I49" s="7">
         <v>261736</v>
       </c>
-      <c r="J47" s="10" t="n">
+      <c r="J49" s="7">
         <v>255296</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+    <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="10" t="n">
+      <c r="B50" s="7">
         <v>722431</v>
       </c>
-      <c r="C48" s="10" t="n">
+      <c r="C50" s="7">
         <v>367269</v>
       </c>
-      <c r="D48" s="10" t="n">
+      <c r="D50" s="7">
         <v>355162</v>
       </c>
-      <c r="E48" s="10" t="n">
+      <c r="E50" s="7">
         <v>196700</v>
       </c>
-      <c r="F48" s="10" t="n">
+      <c r="F50" s="7">
         <v>111171</v>
       </c>
-      <c r="G48" s="10" t="n">
+      <c r="G50" s="7">
         <v>85529</v>
       </c>
-      <c r="H48" s="10" t="n">
+      <c r="H50" s="7">
         <v>525731</v>
       </c>
-      <c r="I48" s="10" t="n">
+      <c r="I50" s="7">
         <v>256098</v>
       </c>
-      <c r="J48" s="10" t="n">
+      <c r="J50" s="7">
         <v>269633</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+    <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="10" t="n">
+      <c r="B51" s="7">
         <v>450353</v>
       </c>
-      <c r="C49" s="10" t="n">
+      <c r="C51" s="7">
         <v>216132</v>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D51" s="7">
         <v>234221</v>
       </c>
-      <c r="E49" s="10" t="n">
+      <c r="E51" s="7">
         <v>122350</v>
       </c>
-      <c r="F49" s="10" t="n">
+      <c r="F51" s="7">
         <v>63844</v>
       </c>
-      <c r="G49" s="10" t="n">
+      <c r="G51" s="7">
         <v>58506</v>
       </c>
-      <c r="H49" s="10" t="n">
+      <c r="H51" s="7">
         <v>328003</v>
       </c>
-      <c r="I49" s="10" t="n">
+      <c r="I51" s="7">
         <v>152288</v>
       </c>
-      <c r="J49" s="10" t="n">
+      <c r="J51" s="7">
         <v>175715</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+    <row r="52" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="10" t="n">
+      <c r="B52" s="7">
         <v>864060</v>
       </c>
-      <c r="C50" s="10" t="n">
+      <c r="C52" s="7">
         <v>430545</v>
       </c>
-      <c r="D50" s="10" t="n">
+      <c r="D52" s="7">
         <v>433515</v>
       </c>
-      <c r="E50" s="10" t="n">
+      <c r="E52" s="7">
         <v>488556</v>
       </c>
-      <c r="F50" s="10" t="n">
+      <c r="F52" s="7">
         <v>250306</v>
       </c>
-      <c r="G50" s="10" t="n">
+      <c r="G52" s="7">
         <v>238250</v>
       </c>
-      <c r="H50" s="10" t="n">
+      <c r="H52" s="7">
         <v>375504</v>
       </c>
-      <c r="I50" s="10" t="n">
+      <c r="I52" s="7">
         <v>180239</v>
       </c>
-      <c r="J50" s="10" t="n">
+      <c r="J52" s="7">
         <v>195265</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+    <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="10" t="n">
+      <c r="B53" s="7">
         <v>297098</v>
       </c>
-      <c r="C51" s="10" t="n">
+      <c r="C53" s="7">
         <v>161561</v>
       </c>
-      <c r="D51" s="10" t="n">
+      <c r="D53" s="7">
         <v>135537</v>
       </c>
-      <c r="E51" s="10" t="n">
+      <c r="E53" s="7">
         <v>134780</v>
       </c>
-      <c r="F51" s="10" t="n">
+      <c r="F53" s="7">
         <v>78191</v>
       </c>
-      <c r="G51" s="10" t="n">
+      <c r="G53" s="7">
         <v>56589</v>
       </c>
-      <c r="H51" s="10" t="n">
+      <c r="H53" s="7">
         <v>162318</v>
       </c>
-      <c r="I51" s="10" t="n">
+      <c r="I53" s="7">
         <v>83370</v>
       </c>
-      <c r="J51" s="10" t="n">
+      <c r="J53" s="7">
         <v>78948</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+    <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="10" t="n">
+      <c r="B54" s="7">
         <v>260156</v>
       </c>
-      <c r="C52" s="10" t="n">
+      <c r="C54" s="7">
         <v>125704</v>
       </c>
-      <c r="D52" s="10" t="n">
+      <c r="D54" s="7">
         <v>134452</v>
       </c>
-      <c r="E52" s="10" t="n">
+      <c r="E54" s="7">
         <v>103483</v>
       </c>
-      <c r="F52" s="10" t="n">
+      <c r="F54" s="7">
         <v>52408</v>
       </c>
-      <c r="G52" s="10" t="n">
+      <c r="G54" s="7">
         <v>51075</v>
       </c>
-      <c r="H52" s="10" t="n">
+      <c r="H54" s="7">
         <v>156673</v>
       </c>
-      <c r="I52" s="10" t="n">
+      <c r="I54" s="7">
         <v>73296</v>
       </c>
-      <c r="J52" s="10" t="n">
+      <c r="J54" s="7">
         <v>83377</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+    <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="10" t="n">
+      <c r="B55" s="7">
         <v>742245</v>
       </c>
-      <c r="C53" s="10" t="n">
+      <c r="C55" s="7">
         <v>383691</v>
       </c>
-      <c r="D53" s="10" t="n">
+      <c r="D55" s="7">
         <v>358554</v>
       </c>
-      <c r="E53" s="10" t="n">
+      <c r="E55" s="7">
         <v>411917</v>
       </c>
-      <c r="F53" s="10" t="n">
+      <c r="F55" s="7">
         <v>214130</v>
       </c>
-      <c r="G53" s="10" t="n">
+      <c r="G55" s="7">
         <v>197787</v>
       </c>
-      <c r="H53" s="10" t="n">
+      <c r="H55" s="7">
         <v>330328</v>
       </c>
-      <c r="I53" s="10" t="n">
+      <c r="I55" s="7">
         <v>169561</v>
       </c>
-      <c r="J53" s="10" t="n">
+      <c r="J55" s="7">
         <v>160767</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
+    <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="10" t="n">
+      <c r="B56" s="7">
         <v>1769050</v>
       </c>
-      <c r="C54" s="10" t="n">
+      <c r="C56" s="7">
         <v>878563</v>
       </c>
-      <c r="D54" s="10" t="n">
+      <c r="D56" s="7">
         <v>890487</v>
       </c>
-      <c r="E54" s="10" t="n">
+      <c r="E56" s="7">
         <v>852457</v>
       </c>
-      <c r="F54" s="10" t="n">
+      <c r="F56" s="7">
         <v>434621</v>
       </c>
-      <c r="G54" s="10" t="n">
+      <c r="G56" s="7">
         <v>417836</v>
       </c>
-      <c r="H54" s="10" t="n">
+      <c r="H56" s="7">
         <v>916593</v>
       </c>
-      <c r="I54" s="10" t="n">
+      <c r="I56" s="7">
         <v>443942</v>
       </c>
-      <c r="J54" s="10" t="n">
+      <c r="J56" s="7">
         <v>472651</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+    <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="10" t="n">
+      <c r="B57" s="7">
         <v>543384</v>
       </c>
-      <c r="C55" s="10" t="n">
+      <c r="C57" s="7">
         <v>273694</v>
       </c>
-      <c r="D55" s="10" t="n">
+      <c r="D57" s="7">
         <v>269690</v>
       </c>
-      <c r="E55" s="10" t="n">
+      <c r="E57" s="7">
         <v>199499</v>
       </c>
-      <c r="F55" s="10" t="n">
+      <c r="F57" s="7">
         <v>103303</v>
       </c>
-      <c r="G55" s="10" t="n">
+      <c r="G57" s="7">
         <v>96196</v>
       </c>
-      <c r="H55" s="10" t="n">
+      <c r="H57" s="7">
         <v>343885</v>
       </c>
-      <c r="I55" s="10" t="n">
+      <c r="I57" s="7">
         <v>170391</v>
       </c>
-      <c r="J55" s="10" t="n">
+      <c r="J57" s="7">
         <v>173494</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
+    <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="10" t="n">
+      <c r="B58" s="7">
         <v>665809</v>
       </c>
-      <c r="C56" s="10" t="n">
+      <c r="C58" s="7">
         <v>338191</v>
       </c>
-      <c r="D56" s="10" t="n">
+      <c r="D58" s="7">
         <v>327618</v>
       </c>
-      <c r="E56" s="10" t="n">
+      <c r="E58" s="7">
         <v>307623</v>
       </c>
-      <c r="F56" s="10" t="n">
+      <c r="F58" s="7">
         <v>158201</v>
       </c>
-      <c r="G56" s="10" t="n">
+      <c r="G58" s="7">
         <v>149422</v>
       </c>
-      <c r="H56" s="10" t="n">
+      <c r="H58" s="7">
         <v>358186</v>
       </c>
-      <c r="I56" s="10" t="n">
+      <c r="I58" s="7">
         <v>179990</v>
       </c>
-      <c r="J56" s="10" t="n">
+      <c r="J58" s="7">
         <v>178196</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
+    <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="10" t="n">
+      <c r="B59" s="7">
         <v>1050130</v>
       </c>
-      <c r="C57" s="10" t="n">
+      <c r="C59" s="7">
         <v>531281</v>
       </c>
-      <c r="D57" s="10" t="n">
+      <c r="D59" s="7">
         <v>518849</v>
       </c>
-      <c r="E57" s="10" t="n">
+      <c r="E59" s="7">
         <v>481897</v>
       </c>
-      <c r="F57" s="10" t="n">
+      <c r="F59" s="7">
         <v>250626</v>
       </c>
-      <c r="G57" s="10" t="n">
+      <c r="G59" s="7">
         <v>231271</v>
       </c>
-      <c r="H57" s="10" t="n">
+      <c r="H59" s="7">
         <v>568233</v>
       </c>
-      <c r="I57" s="10" t="n">
+      <c r="I59" s="7">
         <v>280655</v>
       </c>
-      <c r="J57" s="10" t="n">
+      <c r="J59" s="7">
         <v>287578</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+    <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="10" t="n">
+      <c r="B60" s="7">
         <v>840472</v>
       </c>
-      <c r="C58" s="10" t="n">
+      <c r="C60" s="7">
         <v>426554</v>
       </c>
-      <c r="D58" s="10" t="n">
+      <c r="D60" s="7">
         <v>413918</v>
       </c>
-      <c r="E58" s="10" t="n">
+      <c r="E60" s="7">
         <v>342428</v>
       </c>
-      <c r="F58" s="10" t="n">
+      <c r="F60" s="7">
         <v>179244</v>
       </c>
-      <c r="G58" s="10" t="n">
+      <c r="G60" s="7">
         <v>163184</v>
       </c>
-      <c r="H58" s="10" t="n">
+      <c r="H60" s="7">
         <v>498044</v>
       </c>
-      <c r="I58" s="10" t="n">
+      <c r="I60" s="7">
         <v>247310</v>
       </c>
-      <c r="J58" s="10" t="n">
+      <c r="J60" s="7">
         <v>250734</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
+    <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="10" t="n">
+      <c r="B61" s="7">
         <v>652069</v>
       </c>
-      <c r="C59" s="10" t="n">
+      <c r="C61" s="7">
         <v>332812</v>
       </c>
-      <c r="D59" s="10" t="n">
+      <c r="D61" s="7">
         <v>319257</v>
       </c>
-      <c r="E59" s="10" t="n">
+      <c r="E61" s="7">
         <v>244000</v>
       </c>
-      <c r="F59" s="10" t="n">
+      <c r="F61" s="7">
         <v>130405</v>
       </c>
-      <c r="G59" s="10" t="n">
+      <c r="G61" s="7">
         <v>113595</v>
       </c>
-      <c r="H59" s="10" t="n">
+      <c r="H61" s="7">
         <v>408069</v>
       </c>
-      <c r="I59" s="10" t="n">
+      <c r="I61" s="7">
         <v>202407</v>
       </c>
-      <c r="J59" s="10" t="n">
+      <c r="J61" s="7">
         <v>205662</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
+    <row r="62" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="10" t="n">
+      <c r="B62" s="7">
         <v>486290</v>
       </c>
-      <c r="C60" s="10" t="n">
+      <c r="C62" s="7">
         <v>249156</v>
       </c>
-      <c r="D60" s="10" t="n">
+      <c r="D62" s="7">
         <v>237134</v>
       </c>
-      <c r="E60" s="10" t="n">
+      <c r="E62" s="7">
         <v>136160</v>
       </c>
-      <c r="F60" s="10" t="n">
+      <c r="F62" s="7">
         <v>72089</v>
       </c>
-      <c r="G60" s="10" t="n">
+      <c r="G62" s="7">
         <v>64071</v>
       </c>
-      <c r="H60" s="10" t="n">
+      <c r="H62" s="7">
         <v>350130</v>
       </c>
-      <c r="I60" s="10" t="n">
+      <c r="I62" s="7">
         <v>177067</v>
       </c>
-      <c r="J60" s="10" t="n">
+      <c r="J62" s="7">
         <v>173063</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
+    <row r="63" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="10" t="n">
+      <c r="B63" s="7">
         <v>339492</v>
       </c>
-      <c r="C61" s="10" t="n">
+      <c r="C63" s="7">
         <v>174542</v>
       </c>
-      <c r="D61" s="10" t="n">
+      <c r="D63" s="7">
         <v>164950</v>
       </c>
-      <c r="E61" s="10" t="n">
+      <c r="E63" s="7">
         <v>78477</v>
       </c>
-      <c r="F61" s="10" t="n">
+      <c r="F63" s="7">
         <v>43226</v>
       </c>
-      <c r="G61" s="10" t="n">
+      <c r="G63" s="7">
         <v>35251</v>
       </c>
-      <c r="H61" s="10" t="n">
+      <c r="H63" s="7">
         <v>261015</v>
       </c>
-      <c r="I61" s="10" t="n">
+      <c r="I63" s="7">
         <v>131316</v>
       </c>
-      <c r="J61" s="10" t="n">
+      <c r="J63" s="7">
         <v>129699</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+    <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="10" t="n">
+      <c r="B64" s="7">
         <v>278129</v>
       </c>
-      <c r="C62" s="10" t="n">
+      <c r="C64" s="7">
         <v>136300</v>
       </c>
-      <c r="D62" s="10" t="n">
+      <c r="D64" s="7">
         <v>141829</v>
       </c>
-      <c r="E62" s="10" t="n">
+      <c r="E64" s="7">
         <v>94871</v>
       </c>
-      <c r="F62" s="10" t="n">
+      <c r="F64" s="7">
         <v>48497</v>
       </c>
-      <c r="G62" s="10" t="n">
+      <c r="G64" s="7">
         <v>46374</v>
       </c>
-      <c r="H62" s="10" t="n">
+      <c r="H64" s="7">
         <v>183258</v>
       </c>
-      <c r="I62" s="10" t="n">
+      <c r="I64" s="7">
         <v>87803</v>
       </c>
-      <c r="J62" s="10" t="n">
+      <c r="J64" s="7">
         <v>95455</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+    <row r="65" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="10" t="n">
+      <c r="B65" s="7">
         <v>560386</v>
       </c>
-      <c r="C63" s="10" t="n">
+      <c r="C65" s="7">
         <v>272207</v>
       </c>
-      <c r="D63" s="10" t="n">
+      <c r="D65" s="7">
         <v>288179</v>
       </c>
-      <c r="E63" s="10" t="n">
+      <c r="E65" s="7">
         <v>172556</v>
       </c>
-      <c r="F63" s="10" t="n">
+      <c r="F65" s="7">
         <v>86882</v>
       </c>
-      <c r="G63" s="10" t="n">
+      <c r="G65" s="7">
         <v>85674</v>
       </c>
-      <c r="H63" s="10" t="n">
+      <c r="H65" s="7">
         <v>387830</v>
       </c>
-      <c r="I63" s="10" t="n">
+      <c r="I65" s="7">
         <v>185325</v>
       </c>
-      <c r="J63" s="10" t="n">
+      <c r="J65" s="7">
         <v>202505</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
+    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="10" t="n">
+      <c r="B66" s="7">
         <v>763857</v>
       </c>
-      <c r="C64" s="10" t="n">
+      <c r="C66" s="7">
         <v>367961</v>
       </c>
-      <c r="D64" s="10" t="n">
+      <c r="D66" s="7">
         <v>395896</v>
       </c>
-      <c r="E64" s="10" t="n">
+      <c r="E66" s="7">
         <v>220067</v>
       </c>
-      <c r="F64" s="10" t="n">
+      <c r="F66" s="7">
         <v>112111</v>
       </c>
-      <c r="G64" s="10" t="n">
+      <c r="G66" s="7">
         <v>107956</v>
       </c>
-      <c r="H64" s="10" t="n">
+      <c r="H66" s="7">
         <v>543790</v>
       </c>
-      <c r="I64" s="10" t="n">
+      <c r="I66" s="7">
         <v>255850</v>
       </c>
-      <c r="J64" s="10" t="n">
+      <c r="J66" s="7">
         <v>287940</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
+    <row r="67" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="10" t="n">
+      <c r="B67" s="7">
         <v>374206</v>
       </c>
-      <c r="C65" s="10" t="n">
+      <c r="C67" s="7">
         <v>181001</v>
       </c>
-      <c r="D65" s="10" t="n">
+      <c r="D67" s="7">
         <v>193205</v>
       </c>
-      <c r="E65" s="10" t="n">
+      <c r="E67" s="7">
         <v>111368</v>
       </c>
-      <c r="F65" s="10" t="n">
+      <c r="F67" s="7">
         <v>58987</v>
       </c>
-      <c r="G65" s="10" t="n">
+      <c r="G67" s="7">
         <v>52381</v>
       </c>
-      <c r="H65" s="10" t="n">
+      <c r="H67" s="7">
         <v>262838</v>
       </c>
-      <c r="I65" s="10" t="n">
+      <c r="I67" s="7">
         <v>122014</v>
       </c>
-      <c r="J65" s="10" t="n">
+      <c r="J67" s="7">
         <v>140824</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+    <row r="68" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="10" t="n">
+      <c r="B68" s="7">
         <v>610500</v>
       </c>
-      <c r="C66" s="10" t="n">
+      <c r="C68" s="7">
         <v>307106</v>
       </c>
-      <c r="D66" s="10" t="n">
+      <c r="D68" s="7">
         <v>303394</v>
       </c>
-      <c r="E66" s="10" t="n">
+      <c r="E68" s="7">
         <v>227625</v>
       </c>
-      <c r="F66" s="10" t="n">
+      <c r="F68" s="7">
         <v>116215</v>
       </c>
-      <c r="G66" s="10" t="n">
+      <c r="G68" s="7">
         <v>111410</v>
       </c>
-      <c r="H66" s="10" t="n">
+      <c r="H68" s="7">
         <v>382875</v>
       </c>
-      <c r="I66" s="10" t="n">
+      <c r="I68" s="7">
         <v>190891</v>
       </c>
-      <c r="J66" s="10" t="n">
+      <c r="J68" s="7">
         <v>191984</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+    <row r="69" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="10" t="n">
+      <c r="B69" s="7">
         <v>1108710</v>
       </c>
-      <c r="C67" s="10" t="n">
+      <c r="C69" s="7">
         <v>541783</v>
       </c>
-      <c r="D67" s="10" t="n">
+      <c r="D69" s="7">
         <v>566927</v>
       </c>
-      <c r="E67" s="10" t="n">
+      <c r="E69" s="7">
         <v>408622</v>
       </c>
-      <c r="F67" s="10" t="n">
+      <c r="F69" s="7">
         <v>206280</v>
       </c>
-      <c r="G67" s="10" t="n">
+      <c r="G69" s="7">
         <v>202342</v>
       </c>
-      <c r="H67" s="10" t="n">
+      <c r="H69" s="7">
         <v>700088</v>
       </c>
-      <c r="I67" s="10" t="n">
+      <c r="I69" s="7">
         <v>335503</v>
       </c>
-      <c r="J67" s="10" t="n">
+      <c r="J69" s="7">
         <v>364585</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
+    <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="10" t="n">
+      <c r="B70" s="7">
         <v>524741</v>
       </c>
-      <c r="C68" s="10" t="n">
+      <c r="C70" s="7">
         <v>267488</v>
       </c>
-      <c r="D68" s="10" t="n">
+      <c r="D70" s="7">
         <v>257253</v>
       </c>
-      <c r="E68" s="10" t="n">
+      <c r="E70" s="7">
         <v>237014</v>
       </c>
-      <c r="F68" s="10" t="n">
+      <c r="F70" s="7">
         <v>124813</v>
       </c>
-      <c r="G68" s="10" t="n">
+      <c r="G70" s="7">
         <v>112201</v>
       </c>
-      <c r="H68" s="10" t="n">
+      <c r="H70" s="7">
         <v>287727</v>
       </c>
-      <c r="I68" s="10" t="n">
+      <c r="I70" s="7">
         <v>142675</v>
       </c>
-      <c r="J68" s="10" t="n">
+      <c r="J70" s="7">
         <v>145052</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
+    <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="10" t="n">
+      <c r="B71" s="7">
         <v>280140</v>
       </c>
-      <c r="C69" s="10" t="n">
+      <c r="C71" s="7">
         <v>133203</v>
       </c>
-      <c r="D69" s="10" t="n">
+      <c r="D71" s="7">
         <v>146937</v>
       </c>
-      <c r="E69" s="10" t="n">
+      <c r="E71" s="7">
         <v>70543</v>
       </c>
-      <c r="F69" s="10" t="n">
+      <c r="F71" s="7">
         <v>35459</v>
       </c>
-      <c r="G69" s="10" t="n">
+      <c r="G71" s="7">
         <v>35084</v>
       </c>
-      <c r="H69" s="10" t="n">
+      <c r="H71" s="7">
         <v>209597</v>
       </c>
-      <c r="I69" s="10" t="n">
+      <c r="I71" s="7">
         <v>97744</v>
       </c>
-      <c r="J69" s="10" t="n">
+      <c r="J71" s="7">
         <v>111853</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+    <row r="72" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="10" t="n">
+      <c r="B72" s="7">
         <v>772209</v>
       </c>
-      <c r="C70" s="10" t="n">
+      <c r="C72" s="7">
         <v>382806</v>
       </c>
-      <c r="D70" s="10" t="n">
+      <c r="D72" s="7">
         <v>389403</v>
       </c>
-      <c r="E70" s="10" t="n">
+      <c r="E72" s="7">
         <v>315336</v>
       </c>
-      <c r="F70" s="10" t="n">
+      <c r="F72" s="7">
         <v>165816</v>
       </c>
-      <c r="G70" s="10" t="n">
+      <c r="G72" s="7">
         <v>149520</v>
       </c>
-      <c r="H70" s="10" t="n">
+      <c r="H72" s="7">
         <v>456873</v>
       </c>
-      <c r="I70" s="10" t="n">
+      <c r="I72" s="7">
         <v>216990</v>
       </c>
-      <c r="J70" s="10" t="n">
+      <c r="J72" s="7">
         <v>239883</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
+    <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="10" t="n">
+      <c r="B73" s="7">
         <v>402721</v>
       </c>
-      <c r="C71" s="10" t="n">
+      <c r="C73" s="7">
         <v>218786</v>
       </c>
-      <c r="D71" s="10" t="n">
+      <c r="D73" s="7">
         <v>183935</v>
       </c>
-      <c r="E71" s="10" t="n">
+      <c r="E73" s="7">
         <v>205678</v>
       </c>
-      <c r="F71" s="10" t="n">
+      <c r="F73" s="7">
         <v>118199</v>
       </c>
-      <c r="G71" s="10" t="n">
+      <c r="G73" s="7">
         <v>87479</v>
       </c>
-      <c r="H71" s="10" t="n">
+      <c r="H73" s="7">
         <v>197043</v>
       </c>
-      <c r="I71" s="10" t="n">
+      <c r="I73" s="7">
         <v>100587</v>
       </c>
-      <c r="J71" s="10" t="n">
+      <c r="J73" s="7">
         <v>96456</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
+    <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="10" t="n">
+      <c r="B74" s="7">
         <v>679071</v>
       </c>
-      <c r="C72" s="10" t="n">
+      <c r="C74" s="7">
         <v>333590</v>
       </c>
-      <c r="D72" s="10" t="n">
+      <c r="D74" s="7">
         <v>345481</v>
       </c>
-      <c r="E72" s="10" t="n">
+      <c r="E74" s="7">
         <v>246126</v>
       </c>
-      <c r="F72" s="10" t="n">
+      <c r="F74" s="7">
         <v>124517</v>
       </c>
-      <c r="G72" s="10" t="n">
+      <c r="G74" s="7">
         <v>121609</v>
       </c>
-      <c r="H72" s="10" t="n">
+      <c r="H74" s="7">
         <v>432945</v>
       </c>
-      <c r="I72" s="10" t="n">
+      <c r="I74" s="7">
         <v>209073</v>
       </c>
-      <c r="J72" s="10" t="n">
+      <c r="J74" s="7">
         <v>223872</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
+    <row r="75" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="10" t="n">
+      <c r="B75" s="7">
         <v>786194</v>
       </c>
-      <c r="C73" s="10" t="n">
+      <c r="C75" s="7">
         <v>380147</v>
       </c>
-      <c r="D73" s="10" t="n">
+      <c r="D75" s="7">
         <v>406047</v>
       </c>
-      <c r="E73" s="10" t="n">
+      <c r="E75" s="7">
         <v>239553</v>
       </c>
-      <c r="F73" s="10" t="n">
+      <c r="F75" s="7">
         <v>127915</v>
       </c>
-      <c r="G73" s="10" t="n">
+      <c r="G75" s="7">
         <v>111638</v>
       </c>
-      <c r="H73" s="10" t="n">
+      <c r="H75" s="7">
         <v>546641</v>
       </c>
-      <c r="I73" s="10" t="n">
+      <c r="I75" s="7">
         <v>252232</v>
       </c>
-      <c r="J73" s="10" t="n">
+      <c r="J75" s="7">
         <v>294409</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
+    <row r="76" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="10" t="n">
+      <c r="B76" s="7">
         <v>151906</v>
       </c>
-      <c r="C74" s="10" t="n">
+      <c r="C76" s="7">
         <v>75288</v>
       </c>
-      <c r="D74" s="10" t="n">
+      <c r="D76" s="7">
         <v>76618</v>
       </c>
-      <c r="E74" s="10" t="n">
+      <c r="E76" s="7">
         <v>43085</v>
       </c>
-      <c r="F74" s="10" t="n">
+      <c r="F76" s="7">
         <v>23316</v>
       </c>
-      <c r="G74" s="10" t="n">
+      <c r="G76" s="7">
         <v>19769</v>
       </c>
-      <c r="H74" s="10" t="n">
+      <c r="H76" s="7">
         <v>108821</v>
       </c>
-      <c r="I74" s="10" t="n">
+      <c r="I76" s="7">
         <v>51972</v>
       </c>
-      <c r="J74" s="10" t="n">
+      <c r="J76" s="7">
         <v>56849</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+    <row r="77" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="10" t="n">
+      <c r="B77" s="7">
         <v>795034</v>
       </c>
-      <c r="C75" s="10" t="n">
+      <c r="C77" s="7">
         <v>410918</v>
       </c>
-      <c r="D75" s="10" t="n">
+      <c r="D77" s="7">
         <v>384116</v>
       </c>
-      <c r="E75" s="10" t="n">
+      <c r="E77" s="7">
         <v>401450</v>
       </c>
-      <c r="F75" s="10" t="n">
+      <c r="F77" s="7">
         <v>212636</v>
       </c>
-      <c r="G75" s="10" t="n">
+      <c r="G77" s="7">
         <v>188814</v>
       </c>
-      <c r="H75" s="10" t="n">
+      <c r="H77" s="7">
         <v>393584</v>
       </c>
-      <c r="I75" s="10" t="n">
+      <c r="I77" s="7">
         <v>198282</v>
       </c>
-      <c r="J75" s="10" t="n">
+      <c r="J77" s="7">
         <v>195302</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
+    <row r="78" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="10" t="n">
+      <c r="B78" s="7">
         <v>271261</v>
       </c>
-      <c r="C76" s="10" t="n">
+      <c r="C78" s="7">
         <v>134066</v>
       </c>
-      <c r="D76" s="10" t="n">
+      <c r="D78" s="7">
         <v>137195</v>
       </c>
-      <c r="E76" s="10" t="n">
+      <c r="E78" s="7">
         <v>126078</v>
       </c>
-      <c r="F76" s="10" t="n">
+      <c r="F78" s="7">
         <v>63759</v>
       </c>
-      <c r="G76" s="10" t="n">
+      <c r="G78" s="7">
         <v>62319</v>
       </c>
-      <c r="H76" s="10" t="n">
+      <c r="H78" s="7">
         <v>145183</v>
       </c>
-      <c r="I76" s="10" t="n">
+      <c r="I78" s="7">
         <v>70307</v>
       </c>
-      <c r="J76" s="10" t="n">
+      <c r="J78" s="7">
         <v>74876</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
+    <row r="79" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="10" t="n">
+      <c r="B79" s="7">
         <v>547216</v>
       </c>
-      <c r="C77" s="10" t="n">
+      <c r="C79" s="7">
         <v>280658</v>
       </c>
-      <c r="D77" s="10" t="n">
+      <c r="D79" s="7">
         <v>266558</v>
       </c>
-      <c r="E77" s="10" t="n">
+      <c r="E79" s="7">
         <v>189269</v>
       </c>
-      <c r="F77" s="10" t="n">
+      <c r="F79" s="7">
         <v>101759</v>
       </c>
-      <c r="G77" s="10" t="n">
+      <c r="G79" s="7">
         <v>87510</v>
       </c>
-      <c r="H77" s="10" t="n">
+      <c r="H79" s="7">
         <v>357947</v>
       </c>
-      <c r="I77" s="10" t="n">
+      <c r="I79" s="7">
         <v>178899</v>
       </c>
-      <c r="J77" s="10" t="n">
+      <c r="J79" s="7">
         <v>179048</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
+    <row r="80" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="10" t="n">
+      <c r="B80" s="7">
         <v>545301</v>
       </c>
-      <c r="C78" s="10" t="n">
+      <c r="C80" s="7">
         <v>263093</v>
       </c>
-      <c r="D78" s="10" t="n">
+      <c r="D80" s="7">
         <v>282208</v>
       </c>
-      <c r="E78" s="10" t="n">
+      <c r="E80" s="7">
         <v>151610</v>
       </c>
-      <c r="F78" s="10" t="n">
+      <c r="F80" s="7">
         <v>76648</v>
       </c>
-      <c r="G78" s="10" t="n">
+      <c r="G80" s="7">
         <v>74962</v>
       </c>
-      <c r="H78" s="10" t="n">
+      <c r="H80" s="7">
         <v>393691</v>
       </c>
-      <c r="I78" s="10" t="n">
+      <c r="I80" s="7">
         <v>186445</v>
       </c>
-      <c r="J78" s="10" t="n">
+      <c r="J80" s="7">
         <v>207246</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+    <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="10" t="n">
+      <c r="B81" s="7">
         <v>1044945</v>
       </c>
-      <c r="C79" s="10" t="n">
+      <c r="C81" s="7">
         <v>519264</v>
       </c>
-      <c r="D79" s="10" t="n">
+      <c r="D81" s="7">
         <v>525681</v>
       </c>
-      <c r="E79" s="10" t="n">
+      <c r="E81" s="7">
         <v>350832</v>
       </c>
-      <c r="F79" s="10" t="n">
+      <c r="F81" s="7">
         <v>184057</v>
       </c>
-      <c r="G79" s="10" t="n">
+      <c r="G81" s="7">
         <v>166775</v>
       </c>
-      <c r="H79" s="10" t="n">
+      <c r="H81" s="7">
         <v>694113</v>
       </c>
-      <c r="I79" s="10" t="n">
+      <c r="I81" s="7">
         <v>335207</v>
       </c>
-      <c r="J79" s="10" t="n">
+      <c r="J81" s="7">
         <v>358906</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
+    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+    </row>
+    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+    </row>
+    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
@@ -2842,12 +3059,7 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/years/1985.xlsx
+++ b/years/1985.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="300" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="aIomlktX" sheetId="1" state="visible" r:id="rId2"/>
@@ -498,7 +498,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:J84"/>
@@ -512,7 +511,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="2" style="0" width="8.71255060728745"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.53441295546559"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/years/1985.xlsx
+++ b/years/1985.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="21465" windowHeight="8265"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="aIomlktX" sheetId="1" r:id="rId1"/>
+    <sheet name="aIomlktX" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <oleSize ref="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -26,18 +26,18 @@
     <t>İllere göre şehir ve köy nüfusları</t>
   </si>
   <si>
+    <t>Toplam</t>
+  </si>
+  <si>
+    <t>Şehir</t>
+  </si>
+  <si>
+    <t>Köy</t>
+  </si>
+  <si>
     <t>İller</t>
   </si>
   <si>
-    <t>Toplam</t>
-  </si>
-  <si>
-    <t>Şehir</t>
-  </si>
-  <si>
-    <t>Köy</t>
-  </si>
-  <si>
     <t>Erkek</t>
   </si>
   <si>
@@ -143,7 +143,7 @@
     <t>Isparta</t>
   </si>
   <si>
-    <t>İçel</t>
+    <t>Mersin (İçel)</t>
   </si>
   <si>
     <t>İstanbul</t>
@@ -251,8 +251,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -261,7 +265,22 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -269,7 +288,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -277,7 +296,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -285,7 +304,7 @@
       <charset val="162"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="8"/>
       <color rgb="FF7F0000"/>
       <name val="Arial"/>
@@ -309,65 +328,104 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -426,2631 +484,2323 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125"/>
-    <col min="2" max="9" width="8.7109375"/>
-    <col min="10" max="10" width="6.5703125"/>
-    <col min="11" max="1025" width="8.5703125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="8.71255060728745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="10" t="n">
         <v>50664458</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="10" t="n">
         <v>25671975</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="10" t="n">
         <v>24992483</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="10" t="n">
         <v>26865757</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="10" t="n">
         <v>14010662</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="10" t="n">
         <v>12855095</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="10" t="n">
         <v>23798701</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="10" t="n">
         <v>11661313</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="10" t="n">
         <v>12137388</v>
       </c>
     </row>
-    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="11" t="n">
         <v>1725940</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="11" t="n">
         <v>875164</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="11" t="n">
         <v>850776</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="11" t="n">
         <v>1142201</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="11" t="n">
         <v>586362</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="11" t="n">
         <v>555839</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="11" t="n">
         <v>583739</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="11" t="n">
         <v>288802</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="11" t="n">
         <v>294937</v>
       </c>
     </row>
-    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="11" t="n">
         <v>430728</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="11" t="n">
         <v>217195</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="11" t="n">
         <v>213533</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="11" t="n">
         <v>150991</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="11" t="n">
         <v>78337</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="11" t="n">
         <v>72654</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="11" t="n">
         <v>279737</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="11" t="n">
         <v>138858</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="11" t="n">
         <v>140879</v>
       </c>
     </row>
-    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="11" t="n">
         <v>666978</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="11" t="n">
         <v>333328</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="11" t="n">
         <v>333650</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="11" t="n">
         <v>229790</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="11" t="n">
         <v>119044</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="11" t="n">
         <v>110746</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="11" t="n">
         <v>437188</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="11" t="n">
         <v>214284</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="11" t="n">
         <v>222904</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="11" t="n">
         <v>421131</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="11" t="n">
         <v>218488</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="11" t="n">
         <v>202643</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="11" t="n">
         <v>141852</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="11" t="n">
         <v>81507</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="11" t="n">
         <v>60345</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="11" t="n">
         <v>279279</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="11" t="n">
         <v>136981</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="11" t="n">
         <v>142298</v>
       </c>
     </row>
-    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="11" t="n">
         <v>358289</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="11" t="n">
         <v>181925</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="11" t="n">
         <v>176364</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="11" t="n">
         <v>148614</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="11" t="n">
         <v>78783</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="11" t="n">
         <v>69831</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="11" t="n">
         <v>209675</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="11" t="n">
         <v>103142</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="11" t="n">
         <v>106533</v>
       </c>
     </row>
-    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="11" t="n">
         <v>3306327</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="11" t="n">
         <v>1702805</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="11" t="n">
         <v>1603522</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="11" t="n">
         <v>2737209</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="11" t="n">
         <v>1422935</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="11" t="n">
         <v>1314274</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="11" t="n">
         <v>569118</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="11" t="n">
         <v>279870</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="11" t="n">
         <v>289248</v>
       </c>
     </row>
-    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="11" t="n">
         <v>891149</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="11" t="n">
         <v>455345</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="11" t="n">
         <v>435804</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="11" t="n">
         <v>397712</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="11" t="n">
         <v>208191</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="11" t="n">
         <v>189521</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="11" t="n">
         <v>493437</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="11" t="n">
         <v>247154</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="11" t="n">
         <v>246283</v>
       </c>
     </row>
-    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11" t="n">
         <v>226338</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="11" t="n">
         <v>110557</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="11" t="n">
         <v>115781</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="11" t="n">
         <v>58302</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="11" t="n">
         <v>32192</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="11" t="n">
         <v>26110</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="11" t="n">
         <v>168036</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="11" t="n">
         <v>78365</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="11" t="n">
         <v>89671</v>
       </c>
     </row>
-    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="11" t="n">
         <v>743419</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="11" t="n">
         <v>372382</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="11" t="n">
         <v>371037</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="11" t="n">
         <v>302311</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="11" t="n">
         <v>154360</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="11" t="n">
         <v>147951</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="11" t="n">
         <v>441108</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="11" t="n">
         <v>218022</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="11" t="n">
         <v>223086</v>
       </c>
     </row>
-    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="11" t="n">
         <v>910282</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="11" t="n">
         <v>463480</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="11" t="n">
         <v>446802</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="11" t="n">
         <v>407585</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="11" t="n">
         <v>210867</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="11" t="n">
         <v>196718</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="11" t="n">
         <v>502697</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="11" t="n">
         <v>252613</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="11" t="n">
         <v>250084</v>
       </c>
     </row>
-    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="11" t="n">
         <v>160909</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="11" t="n">
         <v>83868</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="11" t="n">
         <v>77041</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="11" t="n">
         <v>71521</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="11" t="n">
         <v>39952</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="11" t="n">
         <v>31569</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="11" t="n">
         <v>89388</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="11" t="n">
         <v>43916</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="11" t="n">
         <v>45472</v>
       </c>
     </row>
-    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="11" t="n">
         <v>241548</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="11" t="n">
         <v>120075</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="11" t="n">
         <v>121473</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="11" t="n">
         <v>61199</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="11" t="n">
         <v>32845</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="11" t="n">
         <v>28354</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="11" t="n">
         <v>180349</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="11" t="n">
         <v>87230</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="11" t="n">
         <v>93119</v>
       </c>
     </row>
-    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="11" t="n">
         <v>300843</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="11" t="n">
         <v>156224</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="11" t="n">
         <v>144619</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="11" t="n">
         <v>119626</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="11" t="n">
         <v>65669</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="11" t="n">
         <v>53957</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="11" t="n">
         <v>181217</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="11" t="n">
         <v>90555</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="11" t="n">
         <v>90662</v>
       </c>
     </row>
-    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="11" t="n">
         <v>504778</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="11" t="n">
         <v>250806</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="11" t="n">
         <v>253972</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="11" t="n">
         <v>143787</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="11" t="n">
         <v>76865</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="11" t="n">
         <v>66922</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="11" t="n">
         <v>360991</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="11" t="n">
         <v>173941</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="11" t="n">
         <v>187050</v>
       </c>
     </row>
-    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="11" t="n">
         <v>248002</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="11" t="n">
         <v>125457</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="11" t="n">
         <v>122545</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="11" t="n">
         <v>98907</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="11" t="n">
         <v>53371</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="11" t="n">
         <v>45536</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="11" t="n">
         <v>149095</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="11" t="n">
         <v>72086</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="11" t="n">
         <v>77009</v>
       </c>
     </row>
-    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="11" t="n">
         <v>1324015</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="11" t="n">
         <v>669134</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="11" t="n">
         <v>654881</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="11" t="n">
         <v>840094</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="11" t="n">
         <v>427722</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="11" t="n">
         <v>412372</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="11" t="n">
         <v>483921</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="11" t="n">
         <v>241412</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="11" t="n">
         <v>242509</v>
       </c>
     </row>
-    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="11" t="n">
         <v>417121</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="11" t="n">
         <v>218895</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="11" t="n">
         <v>198226</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="11" t="n">
         <v>148108</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="11" t="n">
         <v>81653</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="11" t="n">
         <v>66455</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="11" t="n">
         <v>269013</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="11" t="n">
         <v>137242</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="11" t="n">
         <v>131771</v>
       </c>
     </row>
-    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="11" t="n">
         <v>263964</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="11" t="n">
         <v>129903</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="11" t="n">
         <v>134061</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="11" t="n">
         <v>84494</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="11" t="n">
         <v>45688</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="11" t="n">
         <v>38806</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="11" t="n">
         <v>179470</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="11" t="n">
         <v>84215</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="11" t="n">
         <v>95255</v>
       </c>
     </row>
-    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="11" t="n">
         <v>599204</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="11" t="n">
         <v>290159</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="11" t="n">
         <v>309045</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="11" t="n">
         <v>200431</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="11" t="n">
         <v>101477</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="11" t="n">
         <v>98954</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="11" t="n">
         <v>398773</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="11" t="n">
         <v>188682</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="11" t="n">
         <v>210091</v>
       </c>
     </row>
-    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="11" t="n">
         <v>667478</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="11" t="n">
         <v>335364</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="11" t="n">
         <v>332114</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="11" t="n">
         <v>248673</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="11" t="n">
         <v>130415</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="11" t="n">
         <v>118258</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="11" t="n">
         <v>418805</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="11" t="n">
         <v>204949</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="11" t="n">
         <v>213856</v>
       </c>
     </row>
-    <row r="35" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="11" t="n">
         <v>934505</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="11" t="n">
         <v>480703</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="11" t="n">
         <v>453802</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="11" t="n">
         <v>472055</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="11" t="n">
         <v>249531</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="11" t="n">
         <v>222524</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="11" t="n">
         <v>462450</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="11" t="n">
         <v>231172</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="11" t="n">
         <v>231278</v>
       </c>
     </row>
-    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="11" t="n">
         <v>389638</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="11" t="n">
         <v>209988</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="11" t="n">
         <v>179650</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="11" t="n">
         <v>178610</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="11" t="n">
         <v>99522</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="11" t="n">
         <v>79088</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="11" t="n">
         <v>211028</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="11" t="n">
         <v>110466</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="11" t="n">
         <v>100562</v>
       </c>
     </row>
-    <row r="37" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="11" t="n">
         <v>483715</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="11" t="n">
         <v>242277</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="11" t="n">
         <v>241438</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="11" t="n">
         <v>233621</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="11" t="n">
         <v>120590</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="11" t="n">
         <v>113031</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="11" t="n">
         <v>250094</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="11" t="n">
         <v>121687</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="11" t="n">
         <v>128407</v>
       </c>
     </row>
-    <row r="38" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="11" t="n">
         <v>299985</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="11" t="n">
         <v>154811</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="11" t="n">
         <v>145174</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="11" t="n">
         <v>112307</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="11" t="n">
         <v>63254</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="11" t="n">
         <v>49053</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="11" t="n">
         <v>187678</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="11" t="n">
         <v>91557</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="11" t="n">
         <v>96121</v>
       </c>
     </row>
-    <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="11" t="n">
         <v>856175</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="11" t="n">
         <v>435276</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="11" t="n">
         <v>420899</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="11" t="n">
         <v>350955</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="11" t="n">
         <v>190850</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="11" t="n">
         <v>160105</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="11" t="n">
         <v>505220</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="11" t="n">
         <v>244426</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="11" t="n">
         <v>260794</v>
       </c>
     </row>
-    <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="11" t="n">
         <v>597397</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="11" t="n">
         <v>301562</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="11" t="n">
         <v>295835</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="11" t="n">
         <v>404236</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="11" t="n">
         <v>205603</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="11" t="n">
         <v>198633</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="11" t="n">
         <v>193161</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="11" t="n">
         <v>95959</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="11" t="n">
         <v>97202</v>
       </c>
     </row>
-    <row r="41" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="11" t="n">
         <v>966490</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="11" t="n">
         <v>490022</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="11" t="n">
         <v>476468</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="11" t="n">
         <v>642938</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="11" t="n">
         <v>330370</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="11" t="n">
         <v>312568</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="11" t="n">
         <v>323552</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="11" t="n">
         <v>159652</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="11" t="n">
         <v>163900</v>
       </c>
     </row>
-    <row r="42" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="11" t="n">
         <v>502151</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="11" t="n">
         <v>243372</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="11" t="n">
         <v>258779</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="11" t="n">
         <v>160995</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="11" t="n">
         <v>83942</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="11" t="n">
         <v>77053</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="11" t="n">
         <v>341156</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="11" t="n">
         <v>159430</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="11" t="n">
         <v>181726</v>
       </c>
     </row>
-    <row r="43" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="11" t="n">
         <v>283753</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="11" t="n">
         <v>135693</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="11" t="n">
         <v>148060</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="11" t="n">
         <v>68793</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="11" t="n">
         <v>38408</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="11" t="n">
         <v>30385</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="11" t="n">
         <v>214960</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="11" t="n">
         <v>97285</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="11" t="n">
         <v>117675</v>
       </c>
     </row>
-    <row r="44" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="11" t="n">
         <v>182645</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="11" t="n">
         <v>100715</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="11" t="n">
         <v>81930</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="11" t="n">
         <v>55563</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="11" t="n">
         <v>34521</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="11" t="n">
         <v>21042</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="11" t="n">
         <v>127082</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="11" t="n">
         <v>66194</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="11" t="n">
         <v>60888</v>
       </c>
     </row>
-    <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="11" t="n">
         <v>1002252</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="11" t="n">
         <v>506296</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="11" t="n">
         <v>495956</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="11" t="n">
         <v>428845</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="11" t="n">
         <v>220154</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="11" t="n">
         <v>208691</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="11" t="n">
         <v>573407</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="11" t="n">
         <v>286142</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="11" t="n">
         <v>287265</v>
       </c>
     </row>
-    <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="11" t="n">
         <v>382844</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="11" t="n">
         <v>198171</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="11" t="n">
         <v>184673</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="11" t="n">
         <v>183298</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="11" t="n">
         <v>100399</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="11" t="n">
         <v>82899</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="11" t="n">
         <v>199546</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="11" t="n">
         <v>97772</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="11" t="n">
         <v>101774</v>
       </c>
     </row>
-    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="11" t="n">
         <v>1034085</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="11" t="n">
         <v>527092</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="11" t="n">
         <v>506993</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="11" t="n">
         <v>566419</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="11" t="n">
         <v>291928</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="11" t="n">
         <v>274491</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="11" t="n">
         <v>467666</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="11" t="n">
         <v>235164</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="11" t="n">
         <v>232502</v>
       </c>
     </row>
-    <row r="48" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="11" t="n">
         <v>5842985</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="11" t="n">
         <v>3041847</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="11" t="n">
         <v>2801138</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="11" t="n">
         <v>5560908</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="11" t="n">
         <v>2887224</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="11" t="n">
         <v>2673684</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="11" t="n">
         <v>282077</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="11" t="n">
         <v>154623</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="11" t="n">
         <v>127454</v>
       </c>
     </row>
-    <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="11" t="n">
         <v>2317829</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="11" t="n">
         <v>1198236</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="11" t="n">
         <v>1119593</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="11" t="n">
         <v>1800797</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="11" t="n">
         <v>936500</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="11" t="n">
         <v>864297</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="11" t="n">
         <v>517032</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="11" t="n">
         <v>261736</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="11" t="n">
         <v>255296</v>
       </c>
     </row>
-    <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="11" t="n">
         <v>722431</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="11" t="n">
         <v>367269</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="11" t="n">
         <v>355162</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="11" t="n">
         <v>196700</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="11" t="n">
         <v>111171</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="11" t="n">
         <v>85529</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="11" t="n">
         <v>525731</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="11" t="n">
         <v>256098</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="11" t="n">
         <v>269633</v>
       </c>
     </row>
-    <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="11" t="n">
         <v>450353</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="11" t="n">
         <v>216132</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="11" t="n">
         <v>234221</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="11" t="n">
         <v>122350</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="11" t="n">
         <v>63844</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="11" t="n">
         <v>58506</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="11" t="n">
         <v>328003</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="11" t="n">
         <v>152288</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="11" t="n">
         <v>175715</v>
       </c>
     </row>
-    <row r="52" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="11" t="n">
         <v>864060</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="11" t="n">
         <v>430545</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="11" t="n">
         <v>433515</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="11" t="n">
         <v>488556</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="11" t="n">
         <v>250306</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="11" t="n">
         <v>238250</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="11" t="n">
         <v>375504</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="11" t="n">
         <v>180239</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="11" t="n">
         <v>195265</v>
       </c>
     </row>
-    <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="11" t="n">
         <v>297098</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="11" t="n">
         <v>161561</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="11" t="n">
         <v>135537</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="11" t="n">
         <v>134780</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="11" t="n">
         <v>78191</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="11" t="n">
         <v>56589</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="11" t="n">
         <v>162318</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="11" t="n">
         <v>83370</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="11" t="n">
         <v>78948</v>
       </c>
     </row>
-    <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="11" t="n">
         <v>260156</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="11" t="n">
         <v>125704</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="11" t="n">
         <v>134452</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="11" t="n">
         <v>103483</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="11" t="n">
         <v>52408</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="11" t="n">
         <v>51075</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="11" t="n">
         <v>156673</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="11" t="n">
         <v>73296</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="11" t="n">
         <v>83377</v>
       </c>
     </row>
-    <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="11" t="n">
         <v>742245</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="11" t="n">
         <v>383691</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="11" t="n">
         <v>358554</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="11" t="n">
         <v>411917</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="11" t="n">
         <v>214130</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="11" t="n">
         <v>197787</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="11" t="n">
         <v>330328</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="11" t="n">
         <v>169561</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="11" t="n">
         <v>160767</v>
       </c>
     </row>
-    <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="11" t="n">
         <v>1769050</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="11" t="n">
         <v>878563</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="11" t="n">
         <v>890487</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="11" t="n">
         <v>852457</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="11" t="n">
         <v>434621</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="11" t="n">
         <v>417836</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="11" t="n">
         <v>916593</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="11" t="n">
         <v>443942</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="11" t="n">
         <v>472651</v>
       </c>
     </row>
-    <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="11" t="n">
         <v>543384</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="11" t="n">
         <v>273694</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="11" t="n">
         <v>269690</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="11" t="n">
         <v>199499</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="11" t="n">
         <v>103303</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="11" t="n">
         <v>96196</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="11" t="n">
         <v>343885</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="11" t="n">
         <v>170391</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="11" t="n">
         <v>173494</v>
       </c>
     </row>
-    <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="11" t="n">
         <v>665809</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="11" t="n">
         <v>338191</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="11" t="n">
         <v>327618</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="11" t="n">
         <v>307623</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="11" t="n">
         <v>158201</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="11" t="n">
         <v>149422</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="11" t="n">
         <v>358186</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="11" t="n">
         <v>179990</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="11" t="n">
         <v>178196</v>
       </c>
     </row>
-    <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="11" t="n">
         <v>1050130</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="11" t="n">
         <v>531281</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="11" t="n">
         <v>518849</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="11" t="n">
         <v>481897</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="11" t="n">
         <v>250626</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="11" t="n">
         <v>231271</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="11" t="n">
         <v>568233</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="11" t="n">
         <v>280655</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="11" t="n">
         <v>287578</v>
       </c>
     </row>
-    <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="11" t="n">
         <v>840472</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="11" t="n">
         <v>426554</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="11" t="n">
         <v>413918</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="11" t="n">
         <v>342428</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="11" t="n">
         <v>179244</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="11" t="n">
         <v>163184</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="11" t="n">
         <v>498044</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="11" t="n">
         <v>247310</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="11" t="n">
         <v>250734</v>
       </c>
     </row>
-    <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="11" t="n">
         <v>652069</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="11" t="n">
         <v>332812</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="11" t="n">
         <v>319257</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="11" t="n">
         <v>244000</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="11" t="n">
         <v>130405</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="11" t="n">
         <v>113595</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="11" t="n">
         <v>408069</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="11" t="n">
         <v>202407</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="11" t="n">
         <v>205662</v>
       </c>
     </row>
-    <row r="62" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="11" t="n">
         <v>486290</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="11" t="n">
         <v>249156</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="11" t="n">
         <v>237134</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="11" t="n">
         <v>136160</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="11" t="n">
         <v>72089</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="11" t="n">
         <v>64071</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="11" t="n">
         <v>350130</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="11" t="n">
         <v>177067</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="11" t="n">
         <v>173063</v>
       </c>
     </row>
-    <row r="63" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="11" t="n">
         <v>339492</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="11" t="n">
         <v>174542</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="11" t="n">
         <v>164950</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="11" t="n">
         <v>78477</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="11" t="n">
         <v>43226</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="11" t="n">
         <v>35251</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="11" t="n">
         <v>261015</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="11" t="n">
         <v>131316</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="11" t="n">
         <v>129699</v>
       </c>
     </row>
-    <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="11" t="n">
         <v>278129</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="11" t="n">
         <v>136300</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="11" t="n">
         <v>141829</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="11" t="n">
         <v>94871</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="11" t="n">
         <v>48497</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="11" t="n">
         <v>46374</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="11" t="n">
         <v>183258</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="11" t="n">
         <v>87803</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="11" t="n">
         <v>95455</v>
       </c>
     </row>
-    <row r="65" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="11" t="n">
         <v>560386</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="11" t="n">
         <v>272207</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="11" t="n">
         <v>288179</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="11" t="n">
         <v>172556</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="11" t="n">
         <v>86882</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="11" t="n">
         <v>85674</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="11" t="n">
         <v>387830</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="11" t="n">
         <v>185325</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="11" t="n">
         <v>202505</v>
       </c>
     </row>
-    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="11" t="n">
         <v>763857</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="11" t="n">
         <v>367961</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="11" t="n">
         <v>395896</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="11" t="n">
         <v>220067</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="11" t="n">
         <v>112111</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="11" t="n">
         <v>107956</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="11" t="n">
         <v>543790</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="11" t="n">
         <v>255850</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="11" t="n">
         <v>287940</v>
       </c>
     </row>
-    <row r="67" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="11" t="n">
         <v>374206</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="11" t="n">
         <v>181001</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="11" t="n">
         <v>193205</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="11" t="n">
         <v>111368</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="11" t="n">
         <v>58987</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="11" t="n">
         <v>52381</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="11" t="n">
         <v>262838</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="11" t="n">
         <v>122014</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="11" t="n">
         <v>140824</v>
       </c>
     </row>
-    <row r="68" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="11" t="n">
         <v>610500</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="11" t="n">
         <v>307106</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="11" t="n">
         <v>303394</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="11" t="n">
         <v>227625</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="11" t="n">
         <v>116215</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="11" t="n">
         <v>111410</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="11" t="n">
         <v>382875</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="11" t="n">
         <v>190891</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="11" t="n">
         <v>191984</v>
       </c>
     </row>
-    <row r="69" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="11" t="n">
         <v>1108710</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="11" t="n">
         <v>541783</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="11" t="n">
         <v>566927</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="11" t="n">
         <v>408622</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="11" t="n">
         <v>206280</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="11" t="n">
         <v>202342</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="11" t="n">
         <v>700088</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="11" t="n">
         <v>335503</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="11" t="n">
         <v>364585</v>
       </c>
     </row>
-    <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="11" t="n">
         <v>524741</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="11" t="n">
         <v>267488</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="11" t="n">
         <v>257253</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="11" t="n">
         <v>237014</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="11" t="n">
         <v>124813</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="11" t="n">
         <v>112201</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="11" t="n">
         <v>287727</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="11" t="n">
         <v>142675</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="11" t="n">
         <v>145052</v>
       </c>
     </row>
-    <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="11" t="n">
         <v>280140</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="11" t="n">
         <v>133203</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="11" t="n">
         <v>146937</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="11" t="n">
         <v>70543</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="11" t="n">
         <v>35459</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="11" t="n">
         <v>35084</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="11" t="n">
         <v>209597</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="11" t="n">
         <v>97744</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="11" t="n">
         <v>111853</v>
       </c>
     </row>
-    <row r="72" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="11" t="n">
         <v>772209</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="11" t="n">
         <v>382806</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="11" t="n">
         <v>389403</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="11" t="n">
         <v>315336</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="11" t="n">
         <v>165816</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="11" t="n">
         <v>149520</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="11" t="n">
         <v>456873</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="11" t="n">
         <v>216990</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="11" t="n">
         <v>239883</v>
       </c>
     </row>
-    <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="11" t="n">
         <v>402721</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="11" t="n">
         <v>218786</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="11" t="n">
         <v>183935</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="11" t="n">
         <v>205678</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="11" t="n">
         <v>118199</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="11" t="n">
         <v>87479</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="11" t="n">
         <v>197043</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="11" t="n">
         <v>100587</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="11" t="n">
         <v>96456</v>
       </c>
     </row>
-    <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="11" t="n">
         <v>679071</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="11" t="n">
         <v>333590</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="11" t="n">
         <v>345481</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="11" t="n">
         <v>246126</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="11" t="n">
         <v>124517</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="11" t="n">
         <v>121609</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="11" t="n">
         <v>432945</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="11" t="n">
         <v>209073</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="11" t="n">
         <v>223872</v>
       </c>
     </row>
-    <row r="75" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="11" t="n">
         <v>786194</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="11" t="n">
         <v>380147</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="11" t="n">
         <v>406047</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="11" t="n">
         <v>239553</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="11" t="n">
         <v>127915</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="11" t="n">
         <v>111638</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="11" t="n">
         <v>546641</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="11" t="n">
         <v>252232</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="11" t="n">
         <v>294409</v>
       </c>
     </row>
-    <row r="76" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="11" t="n">
         <v>151906</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="11" t="n">
         <v>75288</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="11" t="n">
         <v>76618</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="11" t="n">
         <v>43085</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="11" t="n">
         <v>23316</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="11" t="n">
         <v>19769</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="11" t="n">
         <v>108821</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="11" t="n">
         <v>51972</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="11" t="n">
         <v>56849</v>
       </c>
     </row>
-    <row r="77" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="11" t="n">
         <v>795034</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="11" t="n">
         <v>410918</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="11" t="n">
         <v>384116</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="11" t="n">
         <v>401450</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="11" t="n">
         <v>212636</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="11" t="n">
         <v>188814</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="11" t="n">
         <v>393584</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="11" t="n">
         <v>198282</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="11" t="n">
         <v>195302</v>
       </c>
     </row>
-    <row r="78" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="11" t="n">
         <v>271261</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="11" t="n">
         <v>134066</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="11" t="n">
         <v>137195</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="11" t="n">
         <v>126078</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="11" t="n">
         <v>63759</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="11" t="n">
         <v>62319</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="11" t="n">
         <v>145183</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="11" t="n">
         <v>70307</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="11" t="n">
         <v>74876</v>
       </c>
     </row>
-    <row r="79" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="11" t="n">
         <v>547216</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="11" t="n">
         <v>280658</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="11" t="n">
         <v>266558</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="11" t="n">
         <v>189269</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="11" t="n">
         <v>101759</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="11" t="n">
         <v>87510</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="11" t="n">
         <v>357947</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="11" t="n">
         <v>178899</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="11" t="n">
         <v>179048</v>
       </c>
     </row>
-    <row r="80" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="11" t="n">
         <v>545301</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="11" t="n">
         <v>263093</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="11" t="n">
         <v>282208</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="11" t="n">
         <v>151610</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="11" t="n">
         <v>76648</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="11" t="n">
         <v>74962</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="11" t="n">
         <v>393691</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="11" t="n">
         <v>186445</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="11" t="n">
         <v>207246</v>
       </c>
     </row>
-    <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="11" t="n">
         <v>1044945</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="11" t="n">
         <v>519264</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="11" t="n">
         <v>525681</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="11" t="n">
         <v>350832</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="11" t="n">
         <v>184057</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="11" t="n">
         <v>166775</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="11" t="n">
         <v>694113</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="11" t="n">
         <v>335207</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="11" t="n">
         <v>358906</v>
       </c>
     </row>
-    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-    </row>
-    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-    </row>
-    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
@@ -3059,7 +2809,12 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>